--- a/data/FriedlandPage65.xlsx
+++ b/data/FriedlandPage65.xlsx
@@ -367,9 +367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:AR6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
